--- a/TNR_PREJDD/PREJDD.RO.FOU.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.FOU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -2241,8 +2241,8 @@
       <c r="AI3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="18" t="s">
-        <v>66</v>
+      <c r="AJ3" s="18">
+        <v>1000.0</v>
       </c>
       <c r="AK3" s="13" t="s">
         <v>97</v>
@@ -13654,6 +13654,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">

--- a/TNR_PREJDD/PREJDD.RO.FOU.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.FOU.xlsx
@@ -2057,8 +2057,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.75"/>
     <col customWidth="1" min="2" max="2" width="23.88"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="7" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="22.88"/>
+    <col customWidth="1" min="4" max="4" width="30.75"/>
+    <col customWidth="1" min="5" max="7" width="22.88"/>
     <col customWidth="1" min="10" max="10" width="28.13"/>
     <col customWidth="1" min="11" max="11" width="23.25"/>
     <col customWidth="1" min="12" max="12" width="10.88"/>

--- a/TNR_PREJDD/PREJDD.RO.FOU.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.FOU.xlsx
@@ -4035,7 +4035,7 @@
         <v>60</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH15" s="16" t="s">
         <v>77</v>
@@ -4169,7 +4169,7 @@
         <v>60</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH16" s="16" t="s">
         <v>77</v>
@@ -4303,7 +4303,7 @@
         <v>60</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH17" s="16" t="s">
         <v>77</v>
@@ -4437,7 +4437,7 @@
         <v>60</v>
       </c>
       <c r="AG18" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH18" s="16" t="s">
         <v>77</v>
@@ -4571,7 +4571,7 @@
         <v>60</v>
       </c>
       <c r="AG19" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH19" s="16" t="s">
         <v>77</v>
@@ -4705,7 +4705,7 @@
         <v>60</v>
       </c>
       <c r="AG20" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH20" s="16" t="s">
         <v>77</v>
@@ -4839,7 +4839,7 @@
         <v>60</v>
       </c>
       <c r="AG21" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH21" s="16" t="s">
         <v>77</v>
@@ -4973,7 +4973,7 @@
         <v>60</v>
       </c>
       <c r="AG22" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH22" s="16" t="s">
         <v>77</v>
@@ -5107,7 +5107,7 @@
         <v>60</v>
       </c>
       <c r="AG23" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH23" s="16" t="s">
         <v>77</v>
@@ -5241,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="AG24" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH24" s="16" t="s">
         <v>77</v>
@@ -5375,7 +5375,7 @@
         <v>60</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH25" s="16" t="s">
         <v>77</v>
@@ -5509,7 +5509,7 @@
         <v>60</v>
       </c>
       <c r="AG26" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AH26" s="16" t="s">
         <v>77</v>

--- a/TNR_PREJDD/PREJDD.RO.FOU.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.FOU.xlsx
@@ -2475,13 +2475,13 @@
         <v>77</v>
       </c>
       <c r="AP3" s="16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AQ3" s="16" t="s">
         <v>81</v>
       </c>
       <c r="AR3" s="16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
